--- a/biology/Microbiologie/Gélose_CIN/Gélose_CIN.xlsx
+++ b/biology/Microbiologie/Gélose_CIN/Gélose_CIN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_CIN</t>
+          <t>Gélose_CIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Milieu d'isolement pour Yersinia enterocolitica, 24-48 h à 22-32 °C
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_CIN</t>
+          <t>Gélose_CIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">-peptone=20 g
 -extrait de levure=2 g
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_CIN</t>
+          <t>Gélose_CIN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">29g par litre.
 Autoclavage classique.
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_CIN</t>
+          <t>Gélose_CIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">-colonies rouges =bactéries mannitol +
 -colonies incolores =bactéries mannitol -
